--- a/bin/config/xlsx/TestMultiKey.xlsx
+++ b/bin/config/xlsx/TestMultiKey.xlsx
@@ -27,30 +27,33 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="132" uniqueCount="24">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="132" uniqueCount="25">
   <si>
     <t>id</t>
   </si>
   <si>
-    <t>tag_key</t>
-  </si>
-  <si>
-    <t>tag_value</t>
-  </si>
-  <si>
-    <t>immunetag_key</t>
-  </si>
-  <si>
-    <t>immunetag_value</t>
+    <t>tag1_key</t>
+  </si>
+  <si>
+    <t>tag1_value</t>
+  </si>
+  <si>
+    <t>immunetag11_key</t>
+  </si>
+  <si>
+    <t>immunetag1_value</t>
+  </si>
+  <si>
+    <t>immunetag1_key</t>
   </si>
   <si>
     <t>level</t>
   </si>
   <si>
-    <t>testobj_key</t>
-  </si>
-  <si>
-    <t>testobj_value</t>
+    <t>testobj1_key</t>
+  </si>
+  <si>
+    <t>testobj1_value</t>
   </si>
   <si>
     <t>effect</t>
@@ -1031,8 +1034,8 @@
   <sheetPr/>
   <dimension ref="A1:X25"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="F15" sqref="F15"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="J7" sqref="G7 J7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14"/>
@@ -1060,263 +1063,263 @@
         <v>4</v>
       </c>
       <c r="H1" t="s">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="I1" t="s">
         <v>4</v>
       </c>
       <c r="J1" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="K1" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="L1" t="s">
+        <v>8</v>
+      </c>
+      <c r="M1" t="s">
         <v>7</v>
       </c>
-      <c r="M1" t="s">
-        <v>6</v>
-      </c>
       <c r="N1" t="s">
+        <v>8</v>
+      </c>
+      <c r="O1" t="s">
         <v>7</v>
       </c>
-      <c r="O1" t="s">
-        <v>6</v>
-      </c>
       <c r="P1" t="s">
+        <v>8</v>
+      </c>
+      <c r="Q1" t="s">
         <v>7</v>
       </c>
-      <c r="Q1" t="s">
-        <v>6</v>
-      </c>
       <c r="R1" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="S1" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="T1" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="U1" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="V1" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="W1" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="X1" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
     </row>
     <row r="2" spans="1:24">
       <c r="A2" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="B2" t="s">
+        <v>11</v>
+      </c>
+      <c r="C2" t="s">
+        <v>11</v>
+      </c>
+      <c r="D2" t="s">
+        <v>11</v>
+      </c>
+      <c r="E2" t="s">
+        <v>11</v>
+      </c>
+      <c r="F2" t="s">
+        <v>11</v>
+      </c>
+      <c r="G2" t="s">
+        <v>11</v>
+      </c>
+      <c r="H2" t="s">
+        <v>11</v>
+      </c>
+      <c r="I2" t="s">
+        <v>11</v>
+      </c>
+      <c r="J2" t="s">
         <v>10</v>
       </c>
-      <c r="C2" t="s">
+      <c r="K2" t="s">
         <v>10</v>
       </c>
-      <c r="D2" t="s">
+      <c r="L2" t="s">
         <v>10</v>
       </c>
-      <c r="E2" t="s">
+      <c r="M2" t="s">
         <v>10</v>
       </c>
-      <c r="F2" t="s">
+      <c r="N2" t="s">
         <v>10</v>
       </c>
-      <c r="G2" t="s">
+      <c r="O2" t="s">
         <v>10</v>
       </c>
-      <c r="H2" t="s">
+      <c r="P2" t="s">
         <v>10</v>
       </c>
-      <c r="I2" t="s">
+      <c r="Q2" t="s">
         <v>10</v>
       </c>
-      <c r="J2" t="s">
-        <v>9</v>
-      </c>
-      <c r="K2" t="s">
-        <v>9</v>
-      </c>
-      <c r="L2" t="s">
-        <v>9</v>
-      </c>
-      <c r="M2" t="s">
-        <v>9</v>
-      </c>
-      <c r="N2" t="s">
-        <v>9</v>
-      </c>
-      <c r="O2" t="s">
-        <v>9</v>
-      </c>
-      <c r="P2" t="s">
-        <v>9</v>
-      </c>
-      <c r="Q2" t="s">
-        <v>9</v>
-      </c>
       <c r="R2" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="S2" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="T2" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="U2" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="V2" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="W2" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="X2" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
     </row>
     <row r="3" spans="2:7">
       <c r="B3" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="C3" t="s">
+        <v>13</v>
+      </c>
+      <c r="F3" t="s">
         <v>12</v>
       </c>
-      <c r="F3" t="s">
-        <v>11</v>
-      </c>
       <c r="G3" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
     </row>
     <row r="4" spans="1:24">
       <c r="A4" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="B4" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="C4" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="D4" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="E4" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="F4" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="G4" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="H4" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="I4" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="J4" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="K4" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="L4" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="M4" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="N4" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="O4" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="P4" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="Q4" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="R4" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="S4" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="T4" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="U4" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="V4" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="W4" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="X4" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
     </row>
     <row r="5" spans="1:1">
       <c r="A5" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
     </row>
     <row r="19" spans="6:18">
       <c r="F19" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="G19" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="H19" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="I19" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="J19" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="K19" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="L19" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="M19" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="N19" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="O19" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="P19" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="Q19" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="R19" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
     </row>
     <row r="20" spans="1:24">
@@ -1324,25 +1327,25 @@
         <v>1</v>
       </c>
       <c r="B20" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="C20" t="s">
+        <v>19</v>
+      </c>
+      <c r="D20" t="s">
         <v>18</v>
       </c>
-      <c r="D20" t="s">
-        <v>17</v>
-      </c>
       <c r="F20" t="s">
+        <v>20</v>
+      </c>
+      <c r="G20" t="s">
+        <v>21</v>
+      </c>
+      <c r="H20" t="s">
         <v>19</v>
       </c>
-      <c r="G20" t="s">
-        <v>20</v>
-      </c>
-      <c r="H20" t="s">
-        <v>18</v>
-      </c>
       <c r="I20" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="J20">
         <v>0</v>
@@ -1395,25 +1398,25 @@
         <v>2</v>
       </c>
       <c r="B21" t="s">
+        <v>20</v>
+      </c>
+      <c r="C21" t="s">
         <v>19</v>
       </c>
-      <c r="C21" t="s">
-        <v>18</v>
-      </c>
       <c r="D21" t="s">
+        <v>20</v>
+      </c>
+      <c r="F21" t="s">
+        <v>22</v>
+      </c>
+      <c r="G21" t="s">
+        <v>21</v>
+      </c>
+      <c r="H21" t="s">
         <v>19</v>
       </c>
-      <c r="F21" t="s">
+      <c r="I21" t="s">
         <v>21</v>
-      </c>
-      <c r="G21" t="s">
-        <v>20</v>
-      </c>
-      <c r="H21" t="s">
-        <v>18</v>
-      </c>
-      <c r="I21" t="s">
-        <v>20</v>
       </c>
       <c r="J21">
         <v>1</v>
@@ -1466,25 +1469,25 @@
         <v>3</v>
       </c>
       <c r="B22" t="s">
+        <v>22</v>
+      </c>
+      <c r="C22" t="s">
+        <v>19</v>
+      </c>
+      <c r="D22" t="s">
+        <v>22</v>
+      </c>
+      <c r="F22" t="s">
         <v>21</v>
       </c>
-      <c r="C22" t="s">
-        <v>18</v>
-      </c>
-      <c r="D22" t="s">
+      <c r="G22" t="s">
         <v>21</v>
       </c>
-      <c r="F22" t="s">
-        <v>20</v>
-      </c>
-      <c r="G22" t="s">
-        <v>20</v>
-      </c>
       <c r="H22" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="I22" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="J22">
         <v>1</v>
@@ -1537,25 +1540,25 @@
         <v>4</v>
       </c>
       <c r="B23" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="C23" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="D23" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="F23" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="G23" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="H23" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="I23" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="J23">
         <v>1</v>
@@ -1608,25 +1611,25 @@
         <v>5</v>
       </c>
       <c r="B24" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C24" t="s">
+        <v>19</v>
+      </c>
+      <c r="D24" t="s">
+        <v>24</v>
+      </c>
+      <c r="F24" t="s">
         <v>18</v>
       </c>
-      <c r="D24" t="s">
-        <v>23</v>
-      </c>
-      <c r="F24" t="s">
-        <v>17</v>
-      </c>
       <c r="G24" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="H24" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="I24" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="J24">
         <v>100</v>
@@ -1679,25 +1682,25 @@
         <v>6</v>
       </c>
       <c r="B25" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="C25" t="s">
+        <v>19</v>
+      </c>
+      <c r="D25" t="s">
         <v>18</v>
       </c>
-      <c r="D25" t="s">
-        <v>17</v>
-      </c>
       <c r="F25" t="s">
+        <v>20</v>
+      </c>
+      <c r="G25" t="s">
+        <v>21</v>
+      </c>
+      <c r="H25" t="s">
         <v>19</v>
       </c>
-      <c r="G25" t="s">
-        <v>20</v>
-      </c>
-      <c r="H25" t="s">
-        <v>18</v>
-      </c>
       <c r="I25" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="J25">
         <v>100</v>

--- a/bin/config/xlsx/TestMultiKey.xlsx
+++ b/bin/config/xlsx/TestMultiKey.xlsx
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="132" uniqueCount="25">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="132" uniqueCount="24">
   <si>
     <t>id</t>
   </si>
@@ -38,13 +38,10 @@
     <t>tag1_value</t>
   </si>
   <si>
-    <t>immunetag11_key</t>
+    <t>immunetag1_key</t>
   </si>
   <si>
     <t>immunetag1_value</t>
-  </si>
-  <si>
-    <t>immunetag1_key</t>
   </si>
   <si>
     <t>level</t>
@@ -1035,7 +1032,7 @@
   <dimension ref="A1:X25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J7" sqref="G7 J7"/>
+      <selection activeCell="F6" sqref="F6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14"/>
@@ -1063,263 +1060,263 @@
         <v>4</v>
       </c>
       <c r="H1" t="s">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="I1" t="s">
         <v>4</v>
       </c>
       <c r="J1" t="s">
+        <v>5</v>
+      </c>
+      <c r="K1" t="s">
         <v>6</v>
       </c>
-      <c r="K1" t="s">
+      <c r="L1" t="s">
         <v>7</v>
       </c>
-      <c r="L1" t="s">
+      <c r="M1" t="s">
+        <v>6</v>
+      </c>
+      <c r="N1" t="s">
+        <v>7</v>
+      </c>
+      <c r="O1" t="s">
+        <v>6</v>
+      </c>
+      <c r="P1" t="s">
+        <v>7</v>
+      </c>
+      <c r="Q1" t="s">
+        <v>6</v>
+      </c>
+      <c r="R1" t="s">
+        <v>7</v>
+      </c>
+      <c r="S1" t="s">
         <v>8</v>
       </c>
-      <c r="M1" t="s">
-        <v>7</v>
-      </c>
-      <c r="N1" t="s">
+      <c r="T1" t="s">
         <v>8</v>
       </c>
-      <c r="O1" t="s">
-        <v>7</v>
-      </c>
-      <c r="P1" t="s">
+      <c r="U1" t="s">
         <v>8</v>
       </c>
-      <c r="Q1" t="s">
-        <v>7</v>
-      </c>
-      <c r="R1" t="s">
+      <c r="V1" t="s">
         <v>8</v>
       </c>
-      <c r="S1" t="s">
-        <v>9</v>
-      </c>
-      <c r="T1" t="s">
-        <v>9</v>
-      </c>
-      <c r="U1" t="s">
-        <v>9</v>
-      </c>
-      <c r="V1" t="s">
-        <v>9</v>
-      </c>
       <c r="W1" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="X1" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="2" spans="1:24">
       <c r="A2" t="s">
+        <v>9</v>
+      </c>
+      <c r="B2" t="s">
         <v>10</v>
       </c>
-      <c r="B2" t="s">
-        <v>11</v>
-      </c>
       <c r="C2" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="D2" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="E2" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="F2" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="G2" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="H2" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="I2" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="J2" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="K2" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="L2" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="M2" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="N2" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="O2" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="P2" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="Q2" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="R2" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="S2" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="T2" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="U2" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="V2" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="W2" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="X2" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="3" spans="2:7">
       <c r="B3" t="s">
+        <v>11</v>
+      </c>
+      <c r="C3" t="s">
         <v>12</v>
       </c>
-      <c r="C3" t="s">
-        <v>13</v>
-      </c>
       <c r="F3" t="s">
+        <v>11</v>
+      </c>
+      <c r="G3" t="s">
         <v>12</v>
-      </c>
-      <c r="G3" t="s">
-        <v>13</v>
       </c>
     </row>
     <row r="4" spans="1:24">
       <c r="A4" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="B4" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="C4" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="D4" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="E4" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="F4" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="G4" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="H4" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="I4" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="J4" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="K4" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="L4" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="M4" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="N4" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="O4" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="P4" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="Q4" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="R4" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="S4" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="T4" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="U4" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="V4" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="W4" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="X4" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
     <row r="5" spans="1:1">
       <c r="A5" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
     </row>
     <row r="19" spans="6:18">
       <c r="F19" t="s">
+        <v>15</v>
+      </c>
+      <c r="G19" t="s">
+        <v>15</v>
+      </c>
+      <c r="H19" t="s">
+        <v>15</v>
+      </c>
+      <c r="I19" t="s">
+        <v>15</v>
+      </c>
+      <c r="J19" t="s">
         <v>16</v>
       </c>
-      <c r="G19" t="s">
+      <c r="K19" t="s">
         <v>16</v>
       </c>
-      <c r="H19" t="s">
+      <c r="L19" t="s">
         <v>16</v>
       </c>
-      <c r="I19" t="s">
+      <c r="M19" t="s">
         <v>16</v>
       </c>
-      <c r="J19" t="s">
-        <v>17</v>
-      </c>
-      <c r="K19" t="s">
-        <v>17</v>
-      </c>
-      <c r="L19" t="s">
-        <v>17</v>
-      </c>
-      <c r="M19" t="s">
-        <v>17</v>
-      </c>
       <c r="N19" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="O19" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="P19" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="Q19" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="R19" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
     </row>
     <row r="20" spans="1:24">
@@ -1327,25 +1324,25 @@
         <v>1</v>
       </c>
       <c r="B20" t="s">
+        <v>17</v>
+      </c>
+      <c r="C20" t="s">
         <v>18</v>
       </c>
-      <c r="C20" t="s">
+      <c r="D20" t="s">
+        <v>17</v>
+      </c>
+      <c r="F20" t="s">
         <v>19</v>
       </c>
-      <c r="D20" t="s">
+      <c r="G20" t="s">
+        <v>20</v>
+      </c>
+      <c r="H20" t="s">
         <v>18</v>
       </c>
-      <c r="F20" t="s">
+      <c r="I20" t="s">
         <v>20</v>
-      </c>
-      <c r="G20" t="s">
-        <v>21</v>
-      </c>
-      <c r="H20" t="s">
-        <v>19</v>
-      </c>
-      <c r="I20" t="s">
-        <v>21</v>
       </c>
       <c r="J20">
         <v>0</v>
@@ -1398,25 +1395,25 @@
         <v>2</v>
       </c>
       <c r="B21" t="s">
+        <v>19</v>
+      </c>
+      <c r="C21" t="s">
+        <v>18</v>
+      </c>
+      <c r="D21" t="s">
+        <v>19</v>
+      </c>
+      <c r="F21" t="s">
+        <v>21</v>
+      </c>
+      <c r="G21" t="s">
         <v>20</v>
       </c>
-      <c r="C21" t="s">
-        <v>19</v>
-      </c>
-      <c r="D21" t="s">
+      <c r="H21" t="s">
+        <v>18</v>
+      </c>
+      <c r="I21" t="s">
         <v>20</v>
-      </c>
-      <c r="F21" t="s">
-        <v>22</v>
-      </c>
-      <c r="G21" t="s">
-        <v>21</v>
-      </c>
-      <c r="H21" t="s">
-        <v>19</v>
-      </c>
-      <c r="I21" t="s">
-        <v>21</v>
       </c>
       <c r="J21">
         <v>1</v>
@@ -1469,25 +1466,25 @@
         <v>3</v>
       </c>
       <c r="B22" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="C22" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="D22" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="F22" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="G22" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="H22" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="I22" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="J22">
         <v>1</v>
@@ -1540,25 +1537,25 @@
         <v>4</v>
       </c>
       <c r="B23" t="s">
+        <v>22</v>
+      </c>
+      <c r="C23" t="s">
+        <v>18</v>
+      </c>
+      <c r="D23" t="s">
+        <v>22</v>
+      </c>
+      <c r="F23" t="s">
         <v>23</v>
       </c>
-      <c r="C23" t="s">
-        <v>19</v>
-      </c>
-      <c r="D23" t="s">
-        <v>23</v>
-      </c>
-      <c r="F23" t="s">
-        <v>24</v>
-      </c>
       <c r="G23" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="H23" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="I23" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="J23">
         <v>1</v>
@@ -1611,25 +1608,25 @@
         <v>5</v>
       </c>
       <c r="B24" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="C24" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="D24" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="F24" t="s">
+        <v>17</v>
+      </c>
+      <c r="G24" t="s">
+        <v>20</v>
+      </c>
+      <c r="H24" t="s">
         <v>18</v>
       </c>
-      <c r="G24" t="s">
-        <v>21</v>
-      </c>
-      <c r="H24" t="s">
-        <v>19</v>
-      </c>
       <c r="I24" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="J24">
         <v>100</v>
@@ -1682,25 +1679,25 @@
         <v>6</v>
       </c>
       <c r="B25" t="s">
+        <v>17</v>
+      </c>
+      <c r="C25" t="s">
         <v>18</v>
       </c>
-      <c r="C25" t="s">
+      <c r="D25" t="s">
+        <v>17</v>
+      </c>
+      <c r="F25" t="s">
         <v>19</v>
       </c>
-      <c r="D25" t="s">
+      <c r="G25" t="s">
+        <v>20</v>
+      </c>
+      <c r="H25" t="s">
         <v>18</v>
       </c>
-      <c r="F25" t="s">
+      <c r="I25" t="s">
         <v>20</v>
-      </c>
-      <c r="G25" t="s">
-        <v>21</v>
-      </c>
-      <c r="H25" t="s">
-        <v>19</v>
-      </c>
-      <c r="I25" t="s">
-        <v>21</v>
       </c>
       <c r="J25">
         <v>100</v>

--- a/bin/config/xlsx/TestMultiKey.xlsx
+++ b/bin/config/xlsx/TestMultiKey.xlsx
@@ -1032,7 +1032,7 @@
   <dimension ref="A1:X25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F6" sqref="F6"/>
+      <selection activeCell="A5" sqref="A5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14"/>

--- a/bin/config/xlsx/TestMultiKey.xlsx
+++ b/bin/config/xlsx/TestMultiKey.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="24500" windowHeight="10140"/>
+    <workbookView windowWidth="32450" windowHeight="12740"/>
   </bookViews>
   <sheets>
     <sheet name="TestMultiKey" sheetId="1" r:id="rId1"/>
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="132" uniqueCount="24">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="171" uniqueCount="36">
   <si>
     <t>id</t>
   </si>
@@ -56,12 +56,33 @@
     <t>effect</t>
   </si>
   <si>
+    <t>stringkey</t>
+  </si>
+  <si>
+    <t>uint32key</t>
+  </si>
+  <si>
+    <t>in32key</t>
+  </si>
+  <si>
+    <t>mstringkey</t>
+  </si>
+  <si>
+    <t>muint32key</t>
+  </si>
+  <si>
+    <t>min32key</t>
+  </si>
+  <si>
     <t>uint32</t>
   </si>
   <si>
     <t>string</t>
   </si>
   <si>
+    <t>int32</t>
+  </si>
+  <si>
     <t>map_key</t>
   </si>
   <si>
@@ -74,6 +95,9 @@
     <t>multi</t>
   </si>
   <si>
+    <t>key</t>
+  </si>
+  <si>
     <t>免疫tag</t>
   </si>
   <si>
@@ -92,13 +116,25 @@
     <t>None</t>
   </si>
   <si>
+    <t>aa</t>
+  </si>
+  <si>
     <t>Water</t>
   </si>
   <si>
+    <t>bb</t>
+  </si>
+  <si>
+    <t>cc</t>
+  </si>
+  <si>
     <t>Fire</t>
   </si>
   <si>
     <t>Earth</t>
+  </si>
+  <si>
+    <t>dd</t>
   </si>
 </sst>
 </file>
@@ -1029,15 +1065,15 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:X25"/>
+  <dimension ref="A1:AD25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A5" sqref="A5"/>
+      <selection activeCell="AB2" sqref="AB2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14"/>
   <sheetData>
-    <row r="1" spans="1:24">
+    <row r="1" spans="1:30">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -1110,239 +1146,322 @@
       <c r="X1" t="s">
         <v>8</v>
       </c>
+      <c r="Y1" t="s">
+        <v>9</v>
+      </c>
+      <c r="Z1" t="s">
+        <v>10</v>
+      </c>
+      <c r="AA1" t="s">
+        <v>11</v>
+      </c>
+      <c r="AB1" t="s">
+        <v>12</v>
+      </c>
+      <c r="AC1" t="s">
+        <v>13</v>
+      </c>
+      <c r="AD1" t="s">
+        <v>14</v>
+      </c>
     </row>
-    <row r="2" spans="1:24">
+    <row r="2" spans="1:30">
       <c r="A2" t="s">
-        <v>9</v>
+        <v>15</v>
       </c>
       <c r="B2" t="s">
-        <v>10</v>
+        <v>16</v>
       </c>
       <c r="C2" t="s">
-        <v>10</v>
+        <v>16</v>
       </c>
       <c r="D2" t="s">
-        <v>10</v>
+        <v>16</v>
       </c>
       <c r="E2" t="s">
-        <v>10</v>
+        <v>16</v>
       </c>
       <c r="F2" t="s">
-        <v>10</v>
+        <v>16</v>
       </c>
       <c r="G2" t="s">
-        <v>10</v>
+        <v>16</v>
       </c>
       <c r="H2" t="s">
-        <v>10</v>
+        <v>16</v>
       </c>
       <c r="I2" t="s">
-        <v>10</v>
+        <v>16</v>
       </c>
       <c r="J2" t="s">
-        <v>9</v>
+        <v>15</v>
       </c>
       <c r="K2" t="s">
-        <v>9</v>
+        <v>15</v>
       </c>
       <c r="L2" t="s">
-        <v>9</v>
+        <v>15</v>
       </c>
       <c r="M2" t="s">
-        <v>9</v>
+        <v>15</v>
       </c>
       <c r="N2" t="s">
-        <v>9</v>
+        <v>15</v>
       </c>
       <c r="O2" t="s">
-        <v>9</v>
+        <v>15</v>
       </c>
       <c r="P2" t="s">
-        <v>9</v>
+        <v>15</v>
       </c>
       <c r="Q2" t="s">
-        <v>9</v>
+        <v>15</v>
       </c>
       <c r="R2" t="s">
-        <v>9</v>
+        <v>15</v>
       </c>
       <c r="S2" t="s">
-        <v>9</v>
+        <v>15</v>
       </c>
       <c r="T2" t="s">
-        <v>9</v>
+        <v>15</v>
       </c>
       <c r="U2" t="s">
-        <v>9</v>
+        <v>15</v>
       </c>
       <c r="V2" t="s">
-        <v>9</v>
+        <v>15</v>
       </c>
       <c r="W2" t="s">
-        <v>9</v>
+        <v>15</v>
       </c>
       <c r="X2" t="s">
-        <v>9</v>
+        <v>15</v>
+      </c>
+      <c r="Y2" t="s">
+        <v>16</v>
+      </c>
+      <c r="Z2" t="s">
+        <v>15</v>
+      </c>
+      <c r="AA2" t="s">
+        <v>17</v>
+      </c>
+      <c r="AB2" t="s">
+        <v>16</v>
+      </c>
+      <c r="AC2" t="s">
+        <v>15</v>
+      </c>
+      <c r="AD2" t="s">
+        <v>17</v>
       </c>
     </row>
     <row r="3" spans="2:7">
       <c r="B3" t="s">
-        <v>11</v>
+        <v>18</v>
       </c>
       <c r="C3" t="s">
-        <v>12</v>
+        <v>19</v>
       </c>
       <c r="F3" t="s">
-        <v>11</v>
+        <v>18</v>
       </c>
       <c r="G3" t="s">
-        <v>12</v>
+        <v>19</v>
       </c>
     </row>
-    <row r="4" spans="1:24">
+    <row r="4" spans="1:30">
       <c r="A4" t="s">
-        <v>13</v>
+        <v>20</v>
       </c>
       <c r="B4" t="s">
-        <v>13</v>
+        <v>20</v>
       </c>
       <c r="C4" t="s">
-        <v>13</v>
+        <v>20</v>
       </c>
       <c r="D4" t="s">
-        <v>13</v>
+        <v>20</v>
       </c>
       <c r="E4" t="s">
-        <v>13</v>
+        <v>20</v>
       </c>
       <c r="F4" t="s">
-        <v>13</v>
+        <v>20</v>
       </c>
       <c r="G4" t="s">
-        <v>13</v>
+        <v>20</v>
       </c>
       <c r="H4" t="s">
-        <v>13</v>
+        <v>20</v>
       </c>
       <c r="I4" t="s">
-        <v>13</v>
+        <v>20</v>
       </c>
       <c r="J4" t="s">
-        <v>13</v>
+        <v>20</v>
       </c>
       <c r="K4" t="s">
-        <v>13</v>
+        <v>20</v>
       </c>
       <c r="L4" t="s">
-        <v>13</v>
+        <v>20</v>
       </c>
       <c r="M4" t="s">
-        <v>13</v>
+        <v>20</v>
       </c>
       <c r="N4" t="s">
-        <v>13</v>
+        <v>20</v>
       </c>
       <c r="O4" t="s">
-        <v>13</v>
+        <v>20</v>
       </c>
       <c r="P4" t="s">
-        <v>13</v>
+        <v>20</v>
       </c>
       <c r="Q4" t="s">
-        <v>13</v>
+        <v>20</v>
       </c>
       <c r="R4" t="s">
-        <v>13</v>
+        <v>20</v>
       </c>
       <c r="S4" t="s">
-        <v>13</v>
+        <v>20</v>
       </c>
       <c r="T4" t="s">
-        <v>13</v>
+        <v>20</v>
       </c>
       <c r="U4" t="s">
-        <v>13</v>
+        <v>20</v>
       </c>
       <c r="V4" t="s">
-        <v>13</v>
+        <v>20</v>
       </c>
       <c r="W4" t="s">
-        <v>13</v>
+        <v>20</v>
       </c>
       <c r="X4" t="s">
-        <v>13</v>
+        <v>20</v>
+      </c>
+      <c r="Y4" t="s">
+        <v>20</v>
+      </c>
+      <c r="Z4" t="s">
+        <v>20</v>
+      </c>
+      <c r="AA4" t="s">
+        <v>20</v>
+      </c>
+      <c r="AB4" t="s">
+        <v>20</v>
+      </c>
+      <c r="AC4" t="s">
+        <v>20</v>
+      </c>
+      <c r="AD4" t="s">
+        <v>20</v>
       </c>
     </row>
-    <row r="5" spans="1:1">
+    <row r="5" spans="1:30">
       <c r="A5" t="s">
-        <v>14</v>
+        <v>21</v>
+      </c>
+      <c r="AB5" t="s">
+        <v>21</v>
+      </c>
+      <c r="AC5" t="s">
+        <v>21</v>
+      </c>
+      <c r="AD5" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="6" spans="25:30">
+      <c r="Y6" t="s">
+        <v>22</v>
+      </c>
+      <c r="Z6" t="s">
+        <v>22</v>
+      </c>
+      <c r="AA6" t="s">
+        <v>22</v>
+      </c>
+      <c r="AB6" t="s">
+        <v>22</v>
+      </c>
+      <c r="AC6" t="s">
+        <v>22</v>
+      </c>
+      <c r="AD6" t="s">
+        <v>22</v>
       </c>
     </row>
     <row r="19" spans="6:18">
       <c r="F19" t="s">
-        <v>15</v>
+        <v>23</v>
       </c>
       <c r="G19" t="s">
-        <v>15</v>
+        <v>23</v>
       </c>
       <c r="H19" t="s">
-        <v>15</v>
+        <v>23</v>
       </c>
       <c r="I19" t="s">
-        <v>15</v>
+        <v>23</v>
       </c>
       <c r="J19" t="s">
-        <v>16</v>
+        <v>24</v>
       </c>
       <c r="K19" t="s">
-        <v>16</v>
+        <v>24</v>
       </c>
       <c r="L19" t="s">
-        <v>16</v>
+        <v>24</v>
       </c>
       <c r="M19" t="s">
-        <v>16</v>
+        <v>24</v>
       </c>
       <c r="N19" t="s">
-        <v>16</v>
+        <v>24</v>
       </c>
       <c r="O19" t="s">
-        <v>16</v>
+        <v>24</v>
       </c>
       <c r="P19" t="s">
-        <v>16</v>
+        <v>24</v>
       </c>
       <c r="Q19" t="s">
-        <v>16</v>
+        <v>24</v>
       </c>
       <c r="R19" t="s">
-        <v>16</v>
+        <v>24</v>
       </c>
     </row>
-    <row r="20" spans="1:24">
+    <row r="20" spans="1:30">
       <c r="A20">
         <v>1</v>
       </c>
       <c r="B20" t="s">
-        <v>17</v>
+        <v>25</v>
       </c>
       <c r="C20" t="s">
-        <v>18</v>
+        <v>26</v>
       </c>
       <c r="D20" t="s">
-        <v>17</v>
+        <v>25</v>
       </c>
       <c r="F20" t="s">
-        <v>19</v>
+        <v>27</v>
       </c>
       <c r="G20" t="s">
-        <v>20</v>
+        <v>28</v>
       </c>
       <c r="H20" t="s">
-        <v>18</v>
+        <v>26</v>
       </c>
       <c r="I20" t="s">
-        <v>20</v>
+        <v>28</v>
       </c>
       <c r="J20">
         <v>0</v>
@@ -1389,31 +1508,49 @@
       <c r="X20">
         <v>0</v>
       </c>
+      <c r="Y20" t="s">
+        <v>29</v>
+      </c>
+      <c r="Z20">
+        <v>1</v>
+      </c>
+      <c r="AA20">
+        <v>1</v>
+      </c>
+      <c r="AB20" t="s">
+        <v>29</v>
+      </c>
+      <c r="AC20">
+        <v>1</v>
+      </c>
+      <c r="AD20">
+        <v>1</v>
+      </c>
     </row>
-    <row r="21" spans="1:24">
+    <row r="21" spans="1:30">
       <c r="A21">
         <v>2</v>
       </c>
       <c r="B21" t="s">
-        <v>19</v>
+        <v>27</v>
       </c>
       <c r="C21" t="s">
-        <v>18</v>
+        <v>26</v>
       </c>
       <c r="D21" t="s">
-        <v>19</v>
+        <v>27</v>
       </c>
       <c r="F21" t="s">
-        <v>21</v>
+        <v>30</v>
       </c>
       <c r="G21" t="s">
-        <v>20</v>
+        <v>28</v>
       </c>
       <c r="H21" t="s">
-        <v>18</v>
+        <v>26</v>
       </c>
       <c r="I21" t="s">
-        <v>20</v>
+        <v>28</v>
       </c>
       <c r="J21">
         <v>1</v>
@@ -1460,31 +1597,49 @@
       <c r="X21">
         <v>0</v>
       </c>
+      <c r="Y21" t="s">
+        <v>31</v>
+      </c>
+      <c r="Z21">
+        <v>2</v>
+      </c>
+      <c r="AA21">
+        <v>2</v>
+      </c>
+      <c r="AB21" t="s">
+        <v>31</v>
+      </c>
+      <c r="AC21">
+        <v>2</v>
+      </c>
+      <c r="AD21">
+        <v>2</v>
+      </c>
     </row>
-    <row r="22" spans="1:24">
+    <row r="22" spans="1:30">
       <c r="A22">
         <v>3</v>
       </c>
       <c r="B22" t="s">
-        <v>21</v>
+        <v>30</v>
       </c>
       <c r="C22" t="s">
-        <v>18</v>
+        <v>26</v>
       </c>
       <c r="D22" t="s">
-        <v>21</v>
+        <v>30</v>
       </c>
       <c r="F22" t="s">
-        <v>20</v>
+        <v>28</v>
       </c>
       <c r="G22" t="s">
-        <v>20</v>
+        <v>28</v>
       </c>
       <c r="H22" t="s">
-        <v>18</v>
+        <v>26</v>
       </c>
       <c r="I22" t="s">
-        <v>20</v>
+        <v>28</v>
       </c>
       <c r="J22">
         <v>1</v>
@@ -1531,31 +1686,49 @@
       <c r="X22">
         <v>1</v>
       </c>
+      <c r="Y22" t="s">
+        <v>32</v>
+      </c>
+      <c r="Z22">
+        <v>3</v>
+      </c>
+      <c r="AA22">
+        <v>3</v>
+      </c>
+      <c r="AB22" t="s">
+        <v>32</v>
+      </c>
+      <c r="AC22">
+        <v>3</v>
+      </c>
+      <c r="AD22">
+        <v>3</v>
+      </c>
     </row>
-    <row r="23" spans="1:24">
+    <row r="23" spans="1:30">
       <c r="A23">
         <v>4</v>
       </c>
       <c r="B23" t="s">
-        <v>22</v>
+        <v>33</v>
       </c>
       <c r="C23" t="s">
-        <v>18</v>
+        <v>26</v>
       </c>
       <c r="D23" t="s">
-        <v>22</v>
+        <v>33</v>
       </c>
       <c r="F23" t="s">
-        <v>23</v>
+        <v>34</v>
       </c>
       <c r="G23" t="s">
-        <v>20</v>
+        <v>28</v>
       </c>
       <c r="H23" t="s">
-        <v>18</v>
+        <v>26</v>
       </c>
       <c r="I23" t="s">
-        <v>20</v>
+        <v>28</v>
       </c>
       <c r="J23">
         <v>1</v>
@@ -1602,31 +1775,49 @@
       <c r="X23">
         <v>0</v>
       </c>
+      <c r="Y23" t="s">
+        <v>35</v>
+      </c>
+      <c r="Z23">
+        <v>4</v>
+      </c>
+      <c r="AA23">
+        <v>4</v>
+      </c>
+      <c r="AB23" t="s">
+        <v>35</v>
+      </c>
+      <c r="AC23">
+        <v>4</v>
+      </c>
+      <c r="AD23">
+        <v>4</v>
+      </c>
     </row>
-    <row r="24" spans="1:24">
+    <row r="24" spans="1:30">
       <c r="A24">
         <v>5</v>
       </c>
       <c r="B24" t="s">
-        <v>23</v>
+        <v>34</v>
       </c>
       <c r="C24" t="s">
-        <v>18</v>
+        <v>26</v>
       </c>
       <c r="D24" t="s">
-        <v>23</v>
+        <v>34</v>
       </c>
       <c r="F24" t="s">
-        <v>17</v>
+        <v>25</v>
       </c>
       <c r="G24" t="s">
-        <v>20</v>
+        <v>28</v>
       </c>
       <c r="H24" t="s">
-        <v>18</v>
+        <v>26</v>
       </c>
       <c r="I24" t="s">
-        <v>20</v>
+        <v>28</v>
       </c>
       <c r="J24">
         <v>100</v>
@@ -1673,31 +1864,49 @@
       <c r="X24">
         <v>0</v>
       </c>
+      <c r="Y24" t="s">
+        <v>29</v>
+      </c>
+      <c r="Z24">
+        <v>5</v>
+      </c>
+      <c r="AA24">
+        <v>5</v>
+      </c>
+      <c r="AB24" t="s">
+        <v>29</v>
+      </c>
+      <c r="AC24">
+        <v>5</v>
+      </c>
+      <c r="AD24">
+        <v>5</v>
+      </c>
     </row>
-    <row r="25" spans="1:24">
+    <row r="25" spans="1:30">
       <c r="A25">
         <v>6</v>
       </c>
       <c r="B25" t="s">
-        <v>17</v>
+        <v>25</v>
       </c>
       <c r="C25" t="s">
-        <v>18</v>
+        <v>26</v>
       </c>
       <c r="D25" t="s">
-        <v>17</v>
+        <v>25</v>
       </c>
       <c r="F25" t="s">
-        <v>19</v>
+        <v>27</v>
       </c>
       <c r="G25" t="s">
-        <v>20</v>
+        <v>28</v>
       </c>
       <c r="H25" t="s">
-        <v>18</v>
+        <v>26</v>
       </c>
       <c r="I25" t="s">
-        <v>20</v>
+        <v>28</v>
       </c>
       <c r="J25">
         <v>100</v>
@@ -1743,6 +1952,24 @@
       </c>
       <c r="X25">
         <v>1</v>
+      </c>
+      <c r="Y25" t="s">
+        <v>31</v>
+      </c>
+      <c r="Z25">
+        <v>6</v>
+      </c>
+      <c r="AA25">
+        <v>6</v>
+      </c>
+      <c r="AB25" t="s">
+        <v>31</v>
+      </c>
+      <c r="AC25">
+        <v>6</v>
+      </c>
+      <c r="AD25">
+        <v>6</v>
       </c>
     </row>
   </sheetData>

--- a/bin/config/xlsx/TestMultiKey.xlsx
+++ b/bin/config/xlsx/TestMultiKey.xlsx
@@ -95,7 +95,7 @@
     <t>multi</t>
   </si>
   <si>
-    <t>key</t>
+    <t>table_key</t>
   </si>
   <si>
     <t>免疫tag</t>
@@ -1068,7 +1068,7 @@
   <dimension ref="A1:AD25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="AB2" sqref="AB2"/>
+      <selection activeCell="Y6" sqref="Y6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14"/>

--- a/bin/config/xlsx/TestMultiKey.xlsx
+++ b/bin/config/xlsx/TestMultiKey.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="32450" windowHeight="12740"/>
+    <workbookView windowHeight="17200"/>
   </bookViews>
   <sheets>
     <sheet name="TestMultiKey" sheetId="1" r:id="rId1"/>
@@ -1068,7 +1068,7 @@
   <dimension ref="A1:AD25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="Y6" sqref="Y6"/>
+      <selection activeCell="Z20" sqref="Z20:Z25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14"/>
@@ -1512,19 +1512,19 @@
         <v>29</v>
       </c>
       <c r="Z20">
-        <v>1</v>
+        <v>14</v>
       </c>
       <c r="AA20">
-        <v>1</v>
+        <v>8</v>
       </c>
       <c r="AB20" t="s">
         <v>29</v>
       </c>
       <c r="AC20">
-        <v>1</v>
+        <v>17</v>
       </c>
       <c r="AD20">
-        <v>1</v>
+        <v>10</v>
       </c>
     </row>
     <row r="21" spans="1:30">
@@ -1601,19 +1601,19 @@
         <v>31</v>
       </c>
       <c r="Z21">
-        <v>2</v>
+        <v>15</v>
       </c>
       <c r="AA21">
-        <v>2</v>
+        <v>9</v>
       </c>
       <c r="AB21" t="s">
         <v>31</v>
       </c>
       <c r="AC21">
-        <v>2</v>
+        <v>17</v>
       </c>
       <c r="AD21">
-        <v>2</v>
+        <v>10</v>
       </c>
     </row>
     <row r="22" spans="1:30">
@@ -1690,10 +1690,10 @@
         <v>32</v>
       </c>
       <c r="Z22">
-        <v>3</v>
+        <v>16</v>
       </c>
       <c r="AA22">
-        <v>3</v>
+        <v>10</v>
       </c>
       <c r="AB22" t="s">
         <v>32</v>
@@ -1702,7 +1702,7 @@
         <v>3</v>
       </c>
       <c r="AD22">
-        <v>3</v>
+        <v>10</v>
       </c>
     </row>
     <row r="23" spans="1:30">
@@ -1779,10 +1779,10 @@
         <v>35</v>
       </c>
       <c r="Z23">
-        <v>4</v>
+        <v>17</v>
       </c>
       <c r="AA23">
-        <v>4</v>
+        <v>11</v>
       </c>
       <c r="AB23" t="s">
         <v>35</v>
@@ -1791,7 +1791,7 @@
         <v>4</v>
       </c>
       <c r="AD23">
-        <v>4</v>
+        <v>10</v>
       </c>
     </row>
     <row r="24" spans="1:30">
@@ -1868,10 +1868,10 @@
         <v>29</v>
       </c>
       <c r="Z24">
-        <v>5</v>
+        <v>18</v>
       </c>
       <c r="AA24">
-        <v>5</v>
+        <v>12</v>
       </c>
       <c r="AB24" t="s">
         <v>29</v>
@@ -1880,7 +1880,7 @@
         <v>5</v>
       </c>
       <c r="AD24">
-        <v>5</v>
+        <v>10</v>
       </c>
     </row>
     <row r="25" spans="1:30">
@@ -1957,10 +1957,10 @@
         <v>31</v>
       </c>
       <c r="Z25">
-        <v>6</v>
+        <v>19</v>
       </c>
       <c r="AA25">
-        <v>6</v>
+        <v>13</v>
       </c>
       <c r="AB25" t="s">
         <v>31</v>
@@ -1969,7 +1969,7 @@
         <v>6</v>
       </c>
       <c r="AD25">
-        <v>6</v>
+        <v>10</v>
       </c>
     </row>
   </sheetData>
